--- a/individualki.xlsx
+++ b/individualki.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t>Створено</t>
   </si>
@@ -40,16 +40,19 @@
     <t>Дата уроку</t>
   </si>
   <si>
+    <t>teacherovich3 teacher3</t>
+  </si>
+  <si>
     <t>teacherovich4 teacher4</t>
   </si>
   <si>
-    <t>childovich9 child9</t>
-  </si>
-  <si>
-    <t>childovich12 child12</t>
-  </si>
-  <si>
-    <t>childovich13 child13</t>
+    <t>childovich1 child1</t>
+  </si>
+  <si>
+    <t>childovich15 child15</t>
+  </si>
+  <si>
+    <t>childovich2 child2</t>
   </si>
   <si>
     <t>flexi</t>
@@ -451,25 +454,25 @@
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>42540</v>
+        <v>43140</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I2" s="2">
-        <v>41580</v>
+        <v>40777</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -477,25 +480,25 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>42472</v>
+        <v>42792</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="F3">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I3" s="2">
-        <v>43582</v>
+        <v>40808</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -503,25 +506,25 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>41430</v>
+        <v>42715</v>
       </c>
       <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4">
+        <v>18</v>
+      </c>
+      <c r="F4">
         <v>8</v>
       </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4">
-        <v>25</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
       <c r="G4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I4" s="2">
-        <v>44159</v>
+        <v>40514</v>
       </c>
     </row>
   </sheetData>
